--- a/tests/testthat/sample_config/Test_validation_custom.xlsx
+++ b/tests/testthat/sample_config/Test_validation_custom.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\tests\testthat\sample_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1390CA-3F10-42C9-B606-E315C014D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB139B-8F29-48A5-9741-8B1056D6DD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5030" yWindow="1580" windowWidth="25800" windowHeight="9980" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="4" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonalityCurves" sheetId="7" r:id="rId1"/>
     <sheet name="Task1" sheetId="2" r:id="rId2"/>
     <sheet name="StochasticParameters" sheetId="4" r:id="rId3"/>
     <sheet name="Scenarios" sheetId="5" r:id="rId4"/>
-    <sheet name="TotalPop" sheetId="3" r:id="rId5"/>
-    <sheet name="PopValuesX" sheetId="6" r:id="rId6"/>
+    <sheet name="CoverageRates" sheetId="8" r:id="rId5"/>
+    <sheet name="TotalPop" sheetId="3" r:id="rId6"/>
+    <sheet name="PopValuesX" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,8 +43,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C7481EDB-9B4C-4647-A5EA-8AB59C535B8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="182">
   <si>
     <t>Month</t>
   </si>
@@ -508,6 +543,87 @@
   </si>
   <si>
     <t>Amhara</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>CoverageRates</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
+    <t>Newborn</t>
+  </si>
+  <si>
+    <t>Newborn care</t>
+  </si>
+  <si>
+    <t>WellChild</t>
+  </si>
+  <si>
+    <t>Well child check &amp; growth monitoring</t>
   </si>
 </sst>
 </file>
@@ -516,10 +632,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +664,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +712,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -663,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,13 +826,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,16 +846,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -727,6 +873,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -746,7 +894,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Scenarios_retain"/>
@@ -3789,13 +3937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B0FE7C-B244-49A6-86F9-D24A708133C8}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3829,7 +3977,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3846,7 +3994,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3863,7 +4011,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3880,7 +4028,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +4045,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3914,7 +4062,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +4079,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3948,7 +4096,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3965,7 +4113,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +4130,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3999,7 +4147,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4029,14 +4177,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
@@ -4110,7 +4258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4169,7 +4317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4231,7 +4379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4290,7 +4438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4352,7 +4500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4417,7 +4565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4476,7 +4624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4545,7 +4693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -4610,7 +4758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4678,7 +4826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -4747,7 +4895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -4765,7 +4913,7 @@
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -4783,7 +4931,7 @@
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -4799,7 +4947,7 @@
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -4816,7 +4964,7 @@
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -4833,7 +4981,7 @@
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -4850,7 +4998,7 @@
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -4869,7 +5017,7 @@
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -4889,7 +5037,7 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -4909,7 +5057,7 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -4928,7 +5076,7 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -4964,9 +5112,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4977,7 +5125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4985,7 +5133,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -4993,7 +5141,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -5001,7 +5149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -5012,7 +5160,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -5023,7 +5171,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -5034,7 +5182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -5042,7 +5190,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -5050,7 +5198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -5065,23 +5213,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1EFE3-68EB-48B9-8620-0FE3552BDD7C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.796875" customWidth="1"/>
+    <col min="12" max="12" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.73046875" customWidth="1"/>
+    <col min="14" max="14" width="13.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>96</v>
       </c>
@@ -5119,16 +5268,19 @@
         <v>107</v>
       </c>
       <c r="M1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
@@ -5166,13 +5318,16 @@
         <v>112</v>
       </c>
       <c r="M2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="26" t="str">
+      <c r="O2" s="26" t="str">
         <f>[1]RegionSelect!B2</f>
         <v>Amhara</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5180,6 +5335,267 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AE9E7-1762-4C95-BA20-F996C2A64A72}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G3" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L3" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{7FEDE472-E3A9-47F5-B0B3-A50A8B7F5003}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF05A38-A853-4925-B189-8985C9800629}">
   <dimension ref="A1:G102"/>
   <sheetViews>
@@ -5187,13 +5603,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -5207,7 +5623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>82</v>
       </c>
@@ -5224,7 +5640,7 @@
         <v>3534159.3559999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -5242,7 +5658,7 @@
       </c>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -5260,7 +5676,7 @@
       </c>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -5278,7 +5694,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -5295,7 +5711,7 @@
         <v>3221605.9610000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -5312,7 +5728,7 @@
         <v>3172846.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -5329,7 +5745,7 @@
         <v>3111029.5999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -5346,7 +5762,7 @@
         <v>3049212.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -5363,7 +5779,7 @@
         <v>2993498.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -5380,7 +5796,7 @@
         <v>2937783.6000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -5397,542 +5813,542 @@
         <v>2882069.0000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="27"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="27"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="27"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="27"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="27"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="27"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="27"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="27"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="27"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="27"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="27"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="27"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="27"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="27"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="27"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="27"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="27"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="27"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="27"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="27"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="27"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="27"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="27"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="27"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="27"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="27"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="27"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="27"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="27"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="27"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="27"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="27"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="27"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="27"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -5943,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C7952A-3613-4AC7-830E-2EA9DB7A64C8}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -5951,9 +6367,9 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>115</v>
       </c>
@@ -5982,7 +6398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -6011,7 +6427,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -6040,7 +6456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -6071,7 +6487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -6102,7 +6518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -6133,7 +6549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -6164,7 +6580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -6195,7 +6611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -6226,7 +6642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -6257,7 +6673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>151</v>
       </c>
